--- a/Phase_distribution_60.xlsx
+++ b/Phase_distribution_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,586 +440,2938 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-494.7013210871114</v>
+        <v>-518.7497450400599</v>
       </c>
       <c r="B2" t="n">
-        <v>-102.5708607005078</v>
+        <v>-110.5798564396338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-453.5869895648831</v>
+        <v>-509.8177990265593</v>
       </c>
       <c r="B3" t="n">
-        <v>-93.14313777840931</v>
+        <v>-108.4999198651191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-421.3541617675324</v>
+        <v>-501.1805770609176</v>
       </c>
       <c r="B4" t="n">
-        <v>-85.86064235342712</v>
+        <v>-106.4952071342917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-389.9886860248755</v>
+        <v>-492.8160964390333</v>
       </c>
       <c r="B5" t="n">
-        <v>-78.86776204168331</v>
+        <v>-104.5600456201826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-362.2461555208284</v>
+        <v>-484.7048399951532</v>
       </c>
       <c r="B6" t="n">
-        <v>-72.76024400488711</v>
+        <v>-102.6893991281797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-336.7408678182107</v>
+        <v>-476.829180007951</v>
       </c>
       <c r="B7" t="n">
-        <v>-67.20945971365245</v>
+        <v>-100.8787252827253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-312.8082114218672</v>
+        <v>-469.1731307138971</v>
       </c>
       <c r="B8" t="n">
-        <v>-62.05639323403511</v>
+        <v>-99.12391092379505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-290.2347408289928</v>
+        <v>-461.7224307488217</v>
       </c>
       <c r="B9" t="n">
-        <v>-57.24449373086173</v>
+        <v>-97.42128408421337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-268.5215782526723</v>
+        <v>-454.4639368846538</v>
       </c>
       <c r="B10" t="n">
-        <v>-52.6595955282894</v>
+        <v>-95.76746919290719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-248.4307107820302</v>
+        <v>-447.3859338516639</v>
       </c>
       <c r="B11" t="n">
-        <v>-48.45449790627561</v>
+        <v>-94.15945274258149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-228.8722699112541</v>
+        <v>-440.477380534767</v>
       </c>
       <c r="B12" t="n">
-        <v>-44.39437625482049</v>
+        <v>-92.59440730543838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-210.2323451044688</v>
+        <v>-433.7285496770261</v>
       </c>
       <c r="B13" t="n">
-        <v>-40.5548881455714</v>
+        <v>-91.06983296345061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-192.1187149280368</v>
+        <v>-427.1302136455542</v>
       </c>
       <c r="B14" t="n">
-        <v>-36.85099879283746</v>
+        <v>-89.58336935296995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-174.4644052128377</v>
+        <v>-420.6741181147472</v>
       </c>
       <c r="B15" t="n">
-        <v>-33.26603008816454</v>
+        <v>-88.13289982347914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-157.5054866382226</v>
+        <v>-414.3525815203159</v>
       </c>
       <c r="B16" t="n">
-        <v>-29.84476762652724</v>
+        <v>-86.71645833252069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-141.0108441972304</v>
+        <v>-408.1584615639343</v>
       </c>
       <c r="B17" t="n">
-        <v>-26.53760898582595</v>
+        <v>-85.33221979773231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-124.9603224367655</v>
+        <v>-402.0852818812308</v>
       </c>
       <c r="B18" t="n">
-        <v>-23.33818729494317</v>
+        <v>-83.97852628622132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-109.2960306905907</v>
+        <v>-396.1269498117577</v>
       </c>
       <c r="B19" t="n">
-        <v>-20.23290980693702</v>
+        <v>-82.65382204534467</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-94.0006292020461</v>
+        <v>-390.2778675045362</v>
       </c>
       <c r="B20" t="n">
-        <v>-17.21653141034699</v>
+        <v>-81.3566766759069</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-79.06855140199299</v>
+        <v>-384.5327891951293</v>
       </c>
       <c r="B21" t="n">
-        <v>-14.28629196554459</v>
+        <v>-80.08575190147781</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-64.44128088425119</v>
+        <v>-378.8868702513669</v>
       </c>
       <c r="B22" t="n">
-        <v>-11.42923842779828</v>
+        <v>-78.83981112249853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-50.01413590355286</v>
+        <v>-373.3354717263205</v>
       </c>
       <c r="B23" t="n">
-        <v>-8.623756485122044</v>
+        <v>-77.61767509339199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-35.96595011731504</v>
+        <v>-367.8744671346477</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.903433605133898</v>
+        <v>-76.41828842370506</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-22.03964272206273</v>
+        <v>-362.4999099781591</v>
       </c>
       <c r="B25" t="n">
-        <v>-3.217457979535652</v>
+        <v>-75.24064525599641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-8.46446051653747</v>
+        <v>-357.2080557917479</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.6091113611548735</v>
+        <v>-74.08379341385671</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.959941990318432</v>
+        <v>-351.9954369540409</v>
       </c>
       <c r="B27" t="n">
-        <v>1.961011881834679</v>
+        <v>-72.94684999716645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18.17003467320734</v>
+        <v>-346.858816172385</v>
       </c>
       <c r="B28" t="n">
-        <v>4.4814673305832</v>
+        <v>-71.82899040566565</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>31.19840733130201</v>
+        <v>-341.7950510306163</v>
       </c>
       <c r="B29" t="n">
-        <v>6.95918101807797</v>
+        <v>-70.72941823316859</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44.02031377110541</v>
+        <v>-336.8013869668857</v>
       </c>
       <c r="B30" t="n">
-        <v>9.390105550437681</v>
+        <v>-69.64742829451149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56.76021500463309</v>
+        <v>-331.8750512295023</v>
       </c>
       <c r="B31" t="n">
-        <v>11.79837615773562</v>
+        <v>-68.58231787664687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>69.28538175924186</v>
+        <v>-327.01343173982</v>
       </c>
       <c r="B32" t="n">
-        <v>14.15941553703095</v>
+        <v>-67.53342519703205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>81.66573249986388</v>
+        <v>-322.2141923480372</v>
       </c>
       <c r="B33" t="n">
-        <v>16.48693781247641</v>
+        <v>-66.50015369756068</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>93.94127204596911</v>
+        <v>-317.4750272396847</v>
       </c>
       <c r="B34" t="n">
-        <v>18.78888711417164</v>
+        <v>-65.48191859824777</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>106.0478201406441</v>
+        <v>-312.7937884135512</v>
       </c>
       <c r="B35" t="n">
-        <v>21.05364449218973</v>
+        <v>-64.47817402893821</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>118.0474088791015</v>
+        <v>-308.168415279389</v>
       </c>
       <c r="B36" t="n">
-        <v>23.29320940263227</v>
+        <v>-63.48839753424545</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>129.9594381523715</v>
+        <v>-303.5969482779508</v>
       </c>
       <c r="B37" t="n">
-        <v>25.51152487247737</v>
+        <v>-62.51209269697085</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>141.7132496738602</v>
+        <v>-299.0775999716765</v>
       </c>
       <c r="B38" t="n">
-        <v>27.69576842255788</v>
+        <v>-61.5488039729434</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>153.3838091658805</v>
+        <v>-294.6086275550038</v>
       </c>
       <c r="B39" t="n">
-        <v>29.86018606953189</v>
+        <v>-60.59808915572648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>164.9253544864231</v>
+        <v>-290.1883367512759</v>
       </c>
       <c r="B40" t="n">
-        <v>31.99657238634711</v>
+        <v>-59.65952003495676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>176.3928546767671</v>
+        <v>-285.8151790019279</v>
       </c>
       <c r="B41" t="n">
-        <v>34.11536447886209</v>
+        <v>-58.73270280205764</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>187.7720399025517</v>
+        <v>-281.4876165266527</v>
       </c>
       <c r="B42" t="n">
-        <v>36.2141537382206</v>
+        <v>-57.81724917294383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>199.0973231097909</v>
+        <v>-277.204309387965</v>
       </c>
       <c r="B43" t="n">
-        <v>38.29949463457746</v>
+        <v>-56.9128157644862</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>210.304148947739</v>
+        <v>-272.963778166933</v>
       </c>
       <c r="B44" t="n">
-        <v>40.35971019699855</v>
+        <v>-56.01903261944756</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>221.438957283309</v>
+        <v>-268.7647846099848</v>
       </c>
       <c r="B45" t="n">
-        <v>42.40354480009478</v>
+        <v>-55.13558342702129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>232.5043006349349</v>
+        <v>-264.6061354626816</v>
       </c>
       <c r="B46" t="n">
-        <v>44.43164279920325</v>
+        <v>-54.26216385244311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>243.4720275005515</v>
+        <v>-260.4865617380368</v>
       </c>
       <c r="B47" t="n">
-        <v>46.43902133222804</v>
+        <v>-53.3984561145428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>254.3925639927747</v>
+        <v>-256.4050346224976</v>
       </c>
       <c r="B48" t="n">
-        <v>48.43506910459388</v>
+        <v>-52.54419513558014</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>265.2506795749148</v>
+        <v>-252.3603336387482</v>
       </c>
       <c r="B49" t="n">
-        <v>50.41714097019616</v>
+        <v>-51.69907791205094</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>276.0361316890397</v>
+        <v>-248.3515531850757</v>
       </c>
       <c r="B50" t="n">
-        <v>52.38350784979889</v>
+        <v>-50.86286938108128</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>286.7683342196653</v>
+        <v>-244.377640705862</v>
       </c>
       <c r="B51" t="n">
-        <v>54.33783981080467</v>
+        <v>-50.03530573492617</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>297.4234047005602</v>
+        <v>-240.4376433702399</v>
       </c>
       <c r="B52" t="n">
-        <v>56.2759132360672</v>
+        <v>-49.2161458801761</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>308.04511666877</v>
+        <v>-236.5306585606966</v>
       </c>
       <c r="B53" t="n">
-        <v>58.20580343972074</v>
+        <v>-48.40516096141408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>318.6203866311386</v>
+        <v>-232.6557995761972</v>
       </c>
       <c r="B54" t="n">
-        <v>60.12523190237147</v>
+        <v>-47.60212714015415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>329.1323941859579</v>
+        <v>-228.8122284536276</v>
       </c>
       <c r="B55" t="n">
-        <v>62.03124824080305</v>
+        <v>-46.80683232093764</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>339.5621744538091</v>
+        <v>-224.9991848462092</v>
       </c>
       <c r="B56" t="n">
-        <v>63.92052072645902</v>
+        <v>-46.01908200161262</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>349.9650558197805</v>
+        <v>-221.2158428852646</v>
       </c>
       <c r="B57" t="n">
-        <v>65.80316360869341</v>
+        <v>-45.23866961646161</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>360.3551511931805</v>
+        <v>-217.4614794579044</v>
       </c>
       <c r="B58" t="n">
-        <v>67.68180186951884</v>
+        <v>-44.46541124329769</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>370.6553694526281</v>
+        <v>-213.7353635035186</v>
       </c>
       <c r="B59" t="n">
-        <v>69.54257885630142</v>
+        <v>-43.69912266583543</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>380.9382992373044</v>
+        <v>-210.0367977443404</v>
       </c>
       <c r="B60" t="n">
-        <v>71.39868760019044</v>
+        <v>-42.9396279228452</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>391.1893137954485</v>
+        <v>-206.3651452590793</v>
       </c>
       <c r="B61" t="n">
-        <v>73.2475508169893</v>
+        <v>-42.18676467645406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>401.362110090886</v>
+        <v>-202.7197502946842</v>
       </c>
       <c r="B62" t="n">
-        <v>75.08089036738295</v>
+        <v>-41.44036789635464</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>411.5283921333024</v>
+        <v>-199.1000014043244</v>
       </c>
       <c r="B63" t="n">
-        <v>76.91169305740004</v>
+        <v>-40.70028276495509</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>421.6431243219875</v>
+        <v>-195.5053146871129</v>
       </c>
       <c r="B64" t="n">
-        <v>78.73190461189927</v>
+        <v>-39.96636117149461</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>431.7348585208972</v>
+        <v>-191.9350596088782</v>
       </c>
       <c r="B65" t="n">
-        <v>80.54671986922114</v>
+        <v>-39.23844653869588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>441.7887412696533</v>
+        <v>-188.3887404375642</v>
       </c>
       <c r="B66" t="n">
-        <v>82.35351922666462</v>
+        <v>-38.51641078338855</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>451.7991107870591</v>
+        <v>-184.865791999363</v>
       </c>
       <c r="B67" t="n">
-        <v>84.15133806563756</v>
+        <v>-37.8001126096305</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>461.7852410354412</v>
+        <v>-181.365700590925</v>
       </c>
       <c r="B68" t="n">
-        <v>85.9436859843633</v>
+        <v>-37.08942212168114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>471.7323095809829</v>
+        <v>-177.8880087941902</v>
       </c>
       <c r="B69" t="n">
-        <v>87.72794778706321</v>
+        <v>-36.38422171174818</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>481.6557766714192</v>
+        <v>-174.4321582078476</v>
       </c>
       <c r="B70" t="n">
-        <v>89.50693972921687</v>
+        <v>-35.68437414073867</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>491.5397975944438</v>
+        <v>-170.9977215408767</v>
       </c>
       <c r="B71" t="n">
-        <v>91.27786246515711</v>
+        <v>-34.98976956577144</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>501.411094478865</v>
+        <v>-167.5842499808255</v>
       </c>
       <c r="B72" t="n">
-        <v>93.04554163749782</v>
+        <v>-34.30029454264127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>511.236096941723</v>
+        <v>-164.1912998977079</v>
       </c>
       <c r="B73" t="n">
-        <v>94.80400269186197</v>
+        <v>-33.61583742337382</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>521.0518833057728</v>
+        <v>-160.8184553873849</v>
       </c>
       <c r="B74" t="n">
-        <v>96.55991688152648</v>
+        <v>-32.93629287466399</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-157.4652872906427</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-32.26155358823797</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-154.1314052667627</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-31.59152074350391</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-150.8164351218082</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-30.92609939905901</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-147.5199607141196</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-30.26518682104103</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-144.241678691145</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-29.60870348967831</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-140.9811873799622</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-28.95655075417051</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-137.7381694474483</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-28.30864740887387</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-134.5122805050869</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-27.66490736860737</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-131.3032002677354</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-27.02524988153715</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-128.1106312814275</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-26.38959923929451</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-124.9342275083965</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-25.75787054745444</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-121.7737440872984</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-25.12999950549312</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-118.6288684739637</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-24.50590879704504</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-115.4993113033941</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-23.88552615710358</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-112.3848002420176</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-23.26878312243377</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-109.285074012242</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-22.65561382466888</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-106.1998908742053</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-22.04595664684877</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-103.1289853531863</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-21.43974565883224</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-100.0721085107366</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-20.8369185721601</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-97.02901757275872</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-20.23741467448798</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-93.99948293514862</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-19.64117619518825</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-90.98327578672009</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-19.04814585407348</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-87.9802035443816</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-18.45827381166507</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-84.99001946592769</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-17.8714999007891</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-82.01250114630811</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-17.28776905364856</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-79.04748022097122</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-16.70703708837132</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-76.09470007221285</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-16.12924282358907</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-73.15404295313442</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-15.55435253523083</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-70.22524730032963</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-14.98230463812155</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-67.30815331333459</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-14.41305771045955</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-64.40259761956719</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-13.8465698717238</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-61.50838008536838</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-13.28279231968091</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-58.62529640831233</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-12.7216756981459</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-55.75325909360235</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-12.16319361023474</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-52.89202393384918</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-11.6072893977981</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-50.04145342255863</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-11.05392738070429</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-47.20139038978467</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-10.50306826568161</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-44.37167269879863</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-9.95467200590906</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-41.55218839896626</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-9.408708476846897</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-38.74270425254402</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-8.865124269811531</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-35.9431529460821</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-8.323898286535751</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-33.15337643873582</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-7.784992049066517</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-30.37319064505754</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-7.248362246865895</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-27.60249687683012</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-6.713982238308802</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-24.84116926197092</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-6.18182029543209</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-22.0890541828759</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-5.651839513493201</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-19.34603049689341</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-5.124009412063884</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-16.61195014237007</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-4.598294492522541</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-13.88671938675247</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-4.07466985984172</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-11.1702165632315</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-3.553105392894139</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-8.462322612075081</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-3.033571619309953</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-5.762884617667461</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-2.516032723035721</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-3.071852903251179</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-2.000472820880645</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-0.3890358214691282</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-1.486848961590852</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>2.285598415179722</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.975148943795773</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>4.952215338619161</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.4653350945498005</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>7.610879188062713</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.04261075543209358</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>10.26172288086621</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5487197803326467</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>12.90485602328181</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.05301857164838</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>15.54033473194512</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.555523402988314</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>18.16826560280579</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.056260069578002</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>20.78878419147242</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.555259761970774</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>23.40196922767387</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.052542730745046</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>26.00789489322795</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.548128261920766</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>28.60667118548691</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.042042350099564</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>31.1983688029272</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.534303416114625</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>33.78308805207759</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.024935407752707</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>36.36093080630112</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.513962466070268</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>38.93195714023301</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.001400707030314</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>41.49624967939335</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.487270435862143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>44.05391850122442</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.971597063391954</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>46.60499830420886</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.454391637078885</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>49.14961275774139</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.935681960338655</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>51.68781276757944</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8.415481980894725</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>54.21970368445731</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8.893815857580535</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>56.74532420678557</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.370695073615963</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>59.26475241710301</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.846138477916696</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>61.77808877231313</v>
+      </c>
+      <c r="B152" t="n">
+        <v>10.3201690581449</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>64.28539177693582</v>
+      </c>
+      <c r="B153" t="n">
+        <v>10.79280180797764</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>66.78671908422506</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.26405149132771</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>69.28215584205941</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.73393797982806</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>71.77176334918229</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.20247657984706</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>74.25559768873163</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.66968154955535</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>76.73376739216991</v>
+      </c>
+      <c r="B158" t="n">
+        <v>13.1355769404569</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>79.20627897990224</v>
+      </c>
+      <c r="B159" t="n">
+        <v>13.60016755708753</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>81.67324296331631</v>
+      </c>
+      <c r="B160" t="n">
+        <v>14.06347768591814</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>84.1346755775966</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14.52551383897679</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>86.59070590247248</v>
+      </c>
+      <c r="B162" t="n">
+        <v>14.98630364898651</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>89.04132388906561</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.44584857850165</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>91.48662333537213</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15.90416951516414</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>93.92666149753303</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16.36128043084946</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>96.36149749474347</v>
+      </c>
+      <c r="B166" t="n">
+        <v>16.81719558883344</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>98.79119741923196</v>
+      </c>
+      <c r="B167" t="n">
+        <v>17.2719304999398</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>101.2157935753447</v>
+      </c>
+      <c r="B168" t="n">
+        <v>17.72549429704907</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>103.6353557074292</v>
+      </c>
+      <c r="B169" t="n">
+        <v>18.17790306585806</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>106.0499447566214</v>
+      </c>
+      <c r="B170" t="n">
+        <v>18.62917118871644</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>108.4595716256913</v>
+      </c>
+      <c r="B171" t="n">
+        <v>19.07930364812128</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>110.8643733520219</v>
+      </c>
+      <c r="B172" t="n">
+        <v>19.52832893642164</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>113.2643218153519</v>
+      </c>
+      <c r="B173" t="n">
+        <v>19.97624464980106</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>115.6595176445976</v>
+      </c>
+      <c r="B174" t="n">
+        <v>20.42307237520561</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>118.0499800225662</v>
+      </c>
+      <c r="B175" t="n">
+        <v>20.86881845104125</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>120.4357748214673</v>
+      </c>
+      <c r="B176" t="n">
+        <v>21.313497879078</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>122.8169573490524</v>
+      </c>
+      <c r="B177" t="n">
+        <v>21.75712364160475</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>125.1935547838366</v>
+      </c>
+      <c r="B178" t="n">
+        <v>22.19970343618559</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>127.5656420894158</v>
+      </c>
+      <c r="B179" t="n">
+        <v>22.64125381554459</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>129.9332472997165</v>
+      </c>
+      <c r="B180" t="n">
+        <v>23.08178254984335</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>132.296421098622</v>
+      </c>
+      <c r="B181" t="n">
+        <v>23.52130158399402</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>134.6551950553025</v>
+      </c>
+      <c r="B182" t="n">
+        <v>23.95981926655912</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>137.0096484585492</v>
+      </c>
+      <c r="B183" t="n">
+        <v>24.39735277512142</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>139.3598047225248</v>
+      </c>
+      <c r="B184" t="n">
+        <v>24.83390885933974</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>141.7056961601688</v>
+      </c>
+      <c r="B185" t="n">
+        <v>25.26949588748556</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>144.0473885240782</v>
+      </c>
+      <c r="B186" t="n">
+        <v>25.70412839757608</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>146.3849107228471</v>
+      </c>
+      <c r="B187" t="n">
+        <v>26.13781404824101</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>148.7183092166734</v>
+      </c>
+      <c r="B188" t="n">
+        <v>26.57056371902283</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>151.0476142770445</v>
+      </c>
+      <c r="B189" t="n">
+        <v>27.00238525069506</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>153.3728979074504</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.43329418308355</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>155.6941737530793</v>
+      </c>
+      <c r="B191" t="n">
+        <v>27.86329520319029</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>158.0114839440045</v>
+      </c>
+      <c r="B192" t="n">
+        <v>28.2923982443358</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>160.3248679477323</v>
+      </c>
+      <c r="B193" t="n">
+        <v>28.72061271216106</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>162.6343841366198</v>
+      </c>
+      <c r="B194" t="n">
+        <v>29.14795147599901</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>164.9400296201455</v>
+      </c>
+      <c r="B195" t="n">
+        <v>29.57441603737419</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>167.2418748365676</v>
+      </c>
+      <c r="B196" t="n">
+        <v>30.00002143240005</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>169.5399680155039</v>
+      </c>
+      <c r="B197" t="n">
+        <v>30.42477855241685</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>171.834309516187</v>
+      </c>
+      <c r="B198" t="n">
+        <v>30.84868941149267</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>174.1249570605108</v>
+      </c>
+      <c r="B199" t="n">
+        <v>31.27176659548724</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>176.4119366900081</v>
+      </c>
+      <c r="B200" t="n">
+        <v>31.69401680626663</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>178.6953069049195</v>
+      </c>
+      <c r="B201" t="n">
+        <v>32.11545270838204</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>180.9750649327103</v>
+      </c>
+      <c r="B202" t="n">
+        <v>32.5360756282717</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>183.2512836011568</v>
+      </c>
+      <c r="B203" t="n">
+        <v>32.95590081469476</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>185.5239635420011</v>
+      </c>
+      <c r="B204" t="n">
+        <v>33.3749301696181</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>187.7931514613678</v>
+      </c>
+      <c r="B205" t="n">
+        <v>33.7931740665116</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>190.0588848826534</v>
+      </c>
+      <c r="B206" t="n">
+        <v>34.21064115679013</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>192.3211875487441</v>
+      </c>
+      <c r="B207" t="n">
+        <v>34.62733752632479</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>194.5801075740196</v>
+      </c>
+      <c r="B208" t="n">
+        <v>35.04327372379078</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>196.8356698242797</v>
+      </c>
+      <c r="B209" t="n">
+        <v>35.4584559896528</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>199.0878894839466</v>
+      </c>
+      <c r="B210" t="n">
+        <v>35.87288875960527</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>201.3368208795413</v>
+      </c>
+      <c r="B211" t="n">
+        <v>36.28658364745107</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>203.5824638605247</v>
+      </c>
+      <c r="B212" t="n">
+        <v>36.69954222074023</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>205.8248817255742</v>
+      </c>
+      <c r="B213" t="n">
+        <v>37.11177769255198</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>208.0640905610221</v>
+      </c>
+      <c r="B214" t="n">
+        <v>37.52329456953117</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>210.3001142044645</v>
+      </c>
+      <c r="B215" t="n">
+        <v>37.93409876216089</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>212.5329845217072</v>
+      </c>
+      <c r="B216" t="n">
+        <v>38.34419763368061</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>214.7627430442557</v>
+      </c>
+      <c r="B217" t="n">
+        <v>38.75360029873832</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216.989407244034</v>
+      </c>
+      <c r="B218" t="n">
+        <v>39.16231143158433</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>219.2129979075509</v>
+      </c>
+      <c r="B219" t="n">
+        <v>39.57033629536605</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>221.4335537840252</v>
+      </c>
+      <c r="B220" t="n">
+        <v>39.97768342817324</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>223.6511049286411</v>
+      </c>
+      <c r="B221" t="n">
+        <v>40.38435975060031</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>225.8656579124057</v>
+      </c>
+      <c r="B222" t="n">
+        <v>40.79036785721061</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>228.0772718738894</v>
+      </c>
+      <c r="B223" t="n">
+        <v>41.19571996003083</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>230.2859365126461</v>
+      </c>
+      <c r="B224" t="n">
+        <v>41.60041552279239</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>232.4917052218349</v>
+      </c>
+      <c r="B225" t="n">
+        <v>42.00446566296628</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>234.6945885912622</v>
+      </c>
+      <c r="B226" t="n">
+        <v>42.40787363573139</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>236.8946261796351</v>
+      </c>
+      <c r="B227" t="n">
+        <v>42.81064798320563</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>239.0918297026392</v>
+      </c>
+      <c r="B228" t="n">
+        <v>43.21279213072086</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>241.2862252576547</v>
+      </c>
+      <c r="B229" t="n">
+        <v>43.61431211911167</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>243.477851376353</v>
+      </c>
+      <c r="B230" t="n">
+        <v>44.01521624514837</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>245.6667111775257</v>
+      </c>
+      <c r="B231" t="n">
+        <v>44.41550630979299</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>247.852842605793</v>
+      </c>
+      <c r="B232" t="n">
+        <v>44.815190466947</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>250.0362610577318</v>
+      </c>
+      <c r="B233" t="n">
+        <v>45.21427272984391</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>252.2169897262449</v>
+      </c>
+      <c r="B234" t="n">
+        <v>45.6127585208443</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>254.3950685050865</v>
+      </c>
+      <c r="B235" t="n">
+        <v>46.01065629626262</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>256.5705000455881</v>
+      </c>
+      <c r="B236" t="n">
+        <v>46.40796769195316</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>258.7433217258866</v>
+      </c>
+      <c r="B237" t="n">
+        <v>46.8047006713733</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>260.9135403995151</v>
+      </c>
+      <c r="B238" t="n">
+        <v>47.2008576080373</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>263.0811937700224</v>
+      </c>
+      <c r="B239" t="n">
+        <v>47.59644649201419</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>265.2462916689315</v>
+      </c>
+      <c r="B240" t="n">
+        <v>47.99147021050857</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>267.4088610802886</v>
+      </c>
+      <c r="B241" t="n">
+        <v>48.3859347661076</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>269.5689226550274</v>
+      </c>
+      <c r="B242" t="n">
+        <v>48.77984499076416</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>271.7264854755828</v>
+      </c>
+      <c r="B243" t="n">
+        <v>49.1732035930284</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>273.8815970649658</v>
+      </c>
+      <c r="B244" t="n">
+        <v>49.56602027493193</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>276.0342541615876</v>
+      </c>
+      <c r="B245" t="n">
+        <v>49.95829546633968</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>278.1844876909341</v>
+      </c>
+      <c r="B246" t="n">
+        <v>50.35003581492242</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>280.3323129101773</v>
+      </c>
+      <c r="B247" t="n">
+        <v>50.74124509923246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>282.4777524999916</v>
+      </c>
+      <c r="B248" t="n">
+        <v>51.13192843675657</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>284.6208235488758</v>
+      </c>
+      <c r="B249" t="n">
+        <v>51.52208991318236</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>286.7615394216921</v>
+      </c>
+      <c r="B250" t="n">
+        <v>51.91173292380543</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>288.899942528928</v>
+      </c>
+      <c r="B251" t="n">
+        <v>52.30086613692248</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>291.0360264180008</v>
+      </c>
+      <c r="B252" t="n">
+        <v>52.68948931548292</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>293.1698267451294</v>
+      </c>
+      <c r="B253" t="n">
+        <v>53.07760987244546</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>295.3013446833248</v>
+      </c>
+      <c r="B254" t="n">
+        <v>53.46522893554902</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>297.4306164090286</v>
+      </c>
+      <c r="B255" t="n">
+        <v>53.85235398646793</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>299.5576416369723</v>
+      </c>
+      <c r="B256" t="n">
+        <v>54.23898586507454</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>301.6824659584331</v>
+      </c>
+      <c r="B257" t="n">
+        <v>54.62513373866955</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>303.8050788945184</v>
+      </c>
+      <c r="B258" t="n">
+        <v>55.01079657215126</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>305.9255094342784</v>
+      </c>
+      <c r="B259" t="n">
+        <v>55.3959804920953</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>308.0437741895483</v>
+      </c>
+      <c r="B260" t="n">
+        <v>55.78068936436179</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>310.1598867906275</v>
+      </c>
+      <c r="B261" t="n">
+        <v>56.16492650248503</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>312.273872133487</v>
+      </c>
+      <c r="B262" t="n">
+        <v>56.54869725452494</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>314.3857459502241</v>
+      </c>
+      <c r="B263" t="n">
+        <v>56.93200529347223</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>316.4955144558108</v>
+      </c>
+      <c r="B264" t="n">
+        <v>57.31485255500951</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>318.6032064316257</v>
+      </c>
+      <c r="B265" t="n">
+        <v>57.69724505962307</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>320.7088396124385</v>
+      </c>
+      <c r="B266" t="n">
+        <v>58.07918681211032</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>322.8124009379192</v>
+      </c>
+      <c r="B267" t="n">
+        <v>58.46067622263152</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>324.9139342201136</v>
+      </c>
+      <c r="B268" t="n">
+        <v>58.8417220064868</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>327.0134633151192</v>
+      </c>
+      <c r="B269" t="n">
+        <v>59.22232924777705</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>329.1109810343722</v>
+      </c>
+      <c r="B270" t="n">
+        <v>59.60249739353492</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>331.2065159256873</v>
+      </c>
+      <c r="B271" t="n">
+        <v>59.98223235963053</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>333.3000722934719</v>
+      </c>
+      <c r="B272" t="n">
+        <v>60.36153565871774</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>335.3916782094789</v>
+      </c>
+      <c r="B273" t="n">
+        <v>60.7404131004991</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>337.4813377859765</v>
+      </c>
+      <c r="B274" t="n">
+        <v>61.1188661448669</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>339.569056452168</v>
+      </c>
+      <c r="B275" t="n">
+        <v>61.49689648257669</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>341.6548876570437</v>
+      </c>
+      <c r="B276" t="n">
+        <v>61.87451448938296</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>343.7388060286399</v>
+      </c>
+      <c r="B277" t="n">
+        <v>62.25171626127474</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>345.8208405776905</v>
+      </c>
+      <c r="B278" t="n">
+        <v>62.62850773177482</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>347.9010110262093</v>
+      </c>
+      <c r="B279" t="n">
+        <v>63.00489314335101</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>349.9793258940847</v>
+      </c>
+      <c r="B280" t="n">
+        <v>63.38087470295511</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>352.0557839321969</v>
+      </c>
+      <c r="B281" t="n">
+        <v>63.75645284314194</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>354.1304221521727</v>
+      </c>
+      <c r="B282" t="n">
+        <v>64.13163490875675</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>356.2032399016059</v>
+      </c>
+      <c r="B283" t="n">
+        <v>64.50642142413301</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>358.2742631073227</v>
+      </c>
+      <c r="B284" t="n">
+        <v>64.88081771198301</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>360.3434984642893</v>
+      </c>
+      <c r="B285" t="n">
+        <v>65.25482560979026</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>362.4109504826914</v>
+      </c>
+      <c r="B286" t="n">
+        <v>65.62844655333555</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>364.4766461500664</v>
+      </c>
+      <c r="B287" t="n">
+        <v>66.00168603279732</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>366.5405930327535</v>
+      </c>
+      <c r="B288" t="n">
+        <v>66.37454602088144</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>368.6027915321984</v>
+      </c>
+      <c r="B289" t="n">
+        <v>66.7470271894847</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>370.6632756263917</v>
+      </c>
+      <c r="B290" t="n">
+        <v>67.11913626785608</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>372.7220381887536</v>
+      </c>
+      <c r="B291" t="n">
+        <v>67.49087255409842</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>374.7791098166288</v>
+      </c>
+      <c r="B292" t="n">
+        <v>67.86224215139549</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>376.8344975480741</v>
+      </c>
+      <c r="B293" t="n">
+        <v>68.23324690155306</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>378.8882008567731</v>
+      </c>
+      <c r="B294" t="n">
+        <v>68.60388727500469</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>380.9402383332772</v>
+      </c>
+      <c r="B295" t="n">
+        <v>68.97416718608756</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>382.9906316696323</v>
+      </c>
+      <c r="B296" t="n">
+        <v>69.34409110113899</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>385.0393824687827</v>
+      </c>
+      <c r="B297" t="n">
+        <v>69.71365985518588</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>387.0865032224594</v>
+      </c>
+      <c r="B298" t="n">
+        <v>70.08287624159163</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>389.1320117800661</v>
+      </c>
+      <c r="B299" t="n">
+        <v>70.45174401322515</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>391.1759113122546</v>
+      </c>
+      <c r="B300" t="n">
+        <v>70.82026426944918</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>393.2182138847571</v>
+      </c>
+      <c r="B301" t="n">
+        <v>71.18843970768239</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>395.2589358313407</v>
+      </c>
+      <c r="B302" t="n">
+        <v>71.5562737882816</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>397.2980911636679</v>
+      </c>
+      <c r="B303" t="n">
+        <v>71.9237695464488</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>399.3356756099304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>72.29092671672686</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>401.3717144554681</v>
+      </c>
+      <c r="B305" t="n">
+        <v>72.65775035411386</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>403.4062134566904</v>
+      </c>
+      <c r="B306" t="n">
+        <v>73.02424198851259</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>405.4391861130492</v>
+      </c>
+      <c r="B307" t="n">
+        <v>73.39040453906196</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>407.470636601479</v>
+      </c>
+      <c r="B308" t="n">
+        <v>73.75623924013863</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>409.500579669841</v>
+      </c>
+      <c r="B309" t="n">
+        <v>74.12174922438453</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>411.5290221476747</v>
+      </c>
+      <c r="B310" t="n">
+        <v>74.48693619294852</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>413.5559786379151</v>
+      </c>
+      <c r="B311" t="n">
+        <v>74.85180324099997</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>415.5814571010962</v>
+      </c>
+      <c r="B312" t="n">
+        <v>75.21635226239505</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>417.6054730547311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>75.58058650567614</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>419.6280222126052</v>
+      </c>
+      <c r="B314" t="n">
+        <v>75.94450565048302</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>421.6491288144895</v>
+      </c>
+      <c r="B315" t="n">
+        <v>76.30811450429204</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>423.668799229264</v>
+      </c>
+      <c r="B316" t="n">
+        <v>76.67141465357076</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>425.6870370395749</v>
+      </c>
+      <c r="B317" t="n">
+        <v>77.03440717894719</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>427.7038560029724</v>
+      </c>
+      <c r="B318" t="n">
+        <v>77.3970949862653</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>429.7192651545422</v>
+      </c>
+      <c r="B319" t="n">
+        <v>77.75948012692066</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>431.7332738625361</v>
+      </c>
+      <c r="B320" t="n">
+        <v>78.12156470734845</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>433.7458951004339</v>
+      </c>
+      <c r="B321" t="n">
+        <v>78.48335147718066</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>435.7571340367944</v>
+      </c>
+      <c r="B322" t="n">
+        <v>78.84484177820192</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>437.7670026024959</v>
+      </c>
+      <c r="B323" t="n">
+        <v>79.20603816305822</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>439.7754980194643</v>
+      </c>
+      <c r="B324" t="n">
+        <v>79.56694053663273</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>441.7826475842854</v>
+      </c>
+      <c r="B325" t="n">
+        <v>79.92755420332139</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>443.7884466244432</v>
+      </c>
+      <c r="B326" t="n">
+        <v>80.28787871867866</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>445.7929128712098</v>
+      </c>
+      <c r="B327" t="n">
+        <v>80.64791765891067</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>447.7960422554863</v>
+      </c>
+      <c r="B328" t="n">
+        <v>81.00767067998629</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>449.7978570236351</v>
+      </c>
+      <c r="B329" t="n">
+        <v>81.36714215991614</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>451.7983643145586</v>
+      </c>
+      <c r="B330" t="n">
+        <v>81.72633375879377</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>453.7975632038681</v>
+      </c>
+      <c r="B331" t="n">
+        <v>82.0852456850952</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>455.7954665804019</v>
+      </c>
+      <c r="B332" t="n">
+        <v>82.44388062333292</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>457.7920858817952</v>
+      </c>
+      <c r="B333" t="n">
+        <v>82.80224099302126</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>459.7874244778608</v>
+      </c>
+      <c r="B334" t="n">
+        <v>83.16032776153</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>461.7815002665256</v>
+      </c>
+      <c r="B335" t="n">
+        <v>83.51814449937612</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>463.7743019025149</v>
+      </c>
+      <c r="B336" t="n">
+        <v>83.87568952579315</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>465.7658596526832</v>
+      </c>
+      <c r="B337" t="n">
+        <v>84.23296862237962</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>467.7561687130645</v>
+      </c>
+      <c r="B338" t="n">
+        <v>84.58998127446554</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>469.7452302925066</v>
+      </c>
+      <c r="B339" t="n">
+        <v>84.94672804298088</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>471.7330721777562</v>
+      </c>
+      <c r="B340" t="n">
+        <v>85.30321425163805</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>473.719686696923</v>
+      </c>
+      <c r="B341" t="n">
+        <v>85.65943886092222</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>475.7050889767433</v>
+      </c>
+      <c r="B342" t="n">
+        <v>86.01540491626508</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>477.6892798736999</v>
+      </c>
+      <c r="B343" t="n">
+        <v>86.37111290072556</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>479.672277266688</v>
+      </c>
+      <c r="B344" t="n">
+        <v>86.72656634540473</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>481.6540736859906</v>
+      </c>
+      <c r="B345" t="n">
+        <v>87.08176423401051</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>483.6346852394811</v>
+      </c>
+      <c r="B346" t="n">
+        <v>87.43670977303651</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>485.6141194799556</v>
+      </c>
+      <c r="B347" t="n">
+        <v>87.79140463189123</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>487.5923892748292</v>
+      </c>
+      <c r="B348" t="n">
+        <v>88.14585142869362</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>489.569487920493</v>
+      </c>
+      <c r="B349" t="n">
+        <v>88.50004927176059</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>491.5454245329183</v>
+      </c>
+      <c r="B350" t="n">
+        <v>88.85400010076347</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>493.5202166659391</v>
+      </c>
+      <c r="B351" t="n">
+        <v>89.20770736313045</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>495.4938686767908</v>
+      </c>
+      <c r="B352" t="n">
+        <v>89.56117213892486</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>497.466384322857</v>
+      </c>
+      <c r="B353" t="n">
+        <v>89.91439539776982</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>499.4377692282877</v>
+      </c>
+      <c r="B354" t="n">
+        <v>90.26737844056979</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>501.4080323374541</v>
+      </c>
+      <c r="B355" t="n">
+        <v>90.62012315956756</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>503.3771772830032</v>
+      </c>
+      <c r="B356" t="n">
+        <v>90.97263049289381</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>505.3452146170179</v>
+      </c>
+      <c r="B357" t="n">
+        <v>91.3249026143219</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>507.3121456418882</v>
+      </c>
+      <c r="B358" t="n">
+        <v>91.67694003888533</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>509.2779841909441</v>
+      </c>
+      <c r="B359" t="n">
+        <v>92.02874552141844</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>511.2427364298234</v>
+      </c>
+      <c r="B360" t="n">
+        <v>92.38032044125251</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>513.2064012844099</v>
+      </c>
+      <c r="B361" t="n">
+        <v>92.73166487951818</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>515.1689947241109</v>
+      </c>
+      <c r="B362" t="n">
+        <v>93.08278196400298</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>517.1305111596937</v>
+      </c>
+      <c r="B363" t="n">
+        <v>93.43367096257708</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>519.0909683318811</v>
+      </c>
+      <c r="B364" t="n">
+        <v>93.78433531392369</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>521.0503605148364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>94.13477425630202</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>523.0087062466092</v>
+      </c>
+      <c r="B366" t="n">
+        <v>94.48499136502511</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>524.9660086669934</v>
+      </c>
+      <c r="B367" t="n">
+        <v>94.83498745848746</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>526.9222711108506</v>
+      </c>
+      <c r="B368" t="n">
+        <v>95.18476338746956</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_60.xlsx
+++ b/Phase_distribution_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,738 +440,730 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.1927120914183</v>
+        <v>-495.3132398834571</v>
       </c>
       <c r="B2" t="n">
-        <v>-453.3547911909147</v>
+        <v>-657.6116726519258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-491.2344781805477</v>
+        <v>-463.9505539648974</v>
       </c>
       <c r="B3" t="n">
-        <v>-445.2313208751717</v>
+        <v>-650.4044700190886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-460.3096651914324</v>
+        <v>-435.7493141243253</v>
       </c>
       <c r="B4" t="n">
-        <v>-438.1355064004356</v>
+        <v>-644.000430903455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-432.4459816223308</v>
+        <v>-410.0150763420276</v>
       </c>
       <c r="B5" t="n">
-        <v>-431.8170726315249</v>
+        <v>-638.2212978802244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-406.9793863497298</v>
+        <v>-386.2562410859509</v>
       </c>
       <c r="B6" t="n">
-        <v>-426.1056284952382</v>
+        <v>-632.9412338109012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-383.4376474063382</v>
+        <v>-364.1132727749131</v>
       </c>
       <c r="B7" t="n">
-        <v>-420.880333597646</v>
+        <v>-628.0684179789262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-361.4742186797523</v>
+        <v>-343.3159766611511</v>
       </c>
       <c r="B8" t="n">
-        <v>-416.0527057508767</v>
+        <v>-623.5339752266767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-340.8277758925615</v>
+        <v>-323.6563553483092</v>
       </c>
       <c r="B9" t="n">
-        <v>-411.5561470768013</v>
+        <v>-619.2849732743547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-321.2966952530385</v>
+        <v>-304.9712167003029</v>
       </c>
       <c r="B10" t="n">
-        <v>-407.3393553045192</v>
+        <v>-615.2799349988315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-302.7223995573951</v>
+        <v>-287.1302841159158</v>
       </c>
       <c r="B11" t="n">
-        <v>-403.3620322591572</v>
+        <v>-611.4857840284346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-284.9780359945815</v>
+        <v>-270.0279271356117</v>
       </c>
       <c r="B12" t="n">
-        <v>-399.5919753084269</v>
+        <v>-607.8757268632309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-267.9606230892397</v>
+        <v>-253.5773604357529</v>
       </c>
       <c r="B13" t="n">
-        <v>-396.0030638205753</v>
+        <v>-604.4277675811018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-251.585380256987</v>
+        <v>-237.706497403797</v>
       </c>
       <c r="B14" t="n">
-        <v>-392.5738120711617</v>
+        <v>-601.123645309596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-235.7817638363692</v>
+        <v>-222.3547351188077</v>
       </c>
       <c r="B15" t="n">
-        <v>-389.2863527833556</v>
+        <v>-597.9480189267263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-220.490410018742</v>
+        <v>-207.4705981212492</v>
       </c>
       <c r="B16" t="n">
-        <v>-386.1256601407962</v>
+        <v>-594.887868396679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-205.6609080043308</v>
+        <v>-193.010147803322</v>
       </c>
       <c r="B17" t="n">
-        <v>-383.0789815116942</v>
+        <v>-591.9320811644819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-191.2500901018451</v>
+        <v>-178.9353697818079</v>
       </c>
       <c r="B18" t="n">
-        <v>-380.1354020610553</v>
+        <v>-589.0710541329734</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-177.2205927753244</v>
+        <v>-165.2132846276789</v>
       </c>
       <c r="B19" t="n">
-        <v>-377.2854847691848</v>
+        <v>-586.2964591325651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-163.5400385307013</v>
+        <v>-151.8150467946928</v>
       </c>
       <c r="B20" t="n">
-        <v>-374.5210517208151</v>
+        <v>-583.6010169766611</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-150.1799986817092</v>
+        <v>-138.7152176255904</v>
       </c>
       <c r="B21" t="n">
-        <v>-371.8349317999216</v>
+        <v>-580.9783159754797</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-137.1154399679706</v>
+        <v>-125.8913029647672</v>
       </c>
       <c r="B22" t="n">
-        <v>-369.2208153188064</v>
+        <v>-578.422690596056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-124.3241885910321</v>
+        <v>-113.3232959014369</v>
       </c>
       <c r="B23" t="n">
-        <v>-366.673118520843</v>
+        <v>-575.9291063796618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-111.7865824343094</v>
+        <v>-100.9933241467511</v>
       </c>
       <c r="B24" t="n">
-        <v>-364.186890891087</v>
+        <v>-573.4930700981612</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-99.4848503161455</v>
+        <v>-88.88528117350343</v>
       </c>
       <c r="B25" t="n">
-        <v>-361.7576726614266</v>
+        <v>-571.1105402955457</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-87.40319893495008</v>
+        <v>-76.98469185246165</v>
       </c>
       <c r="B26" t="n">
-        <v>-359.381496034798</v>
+        <v>-568.7778869414727</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-75.52731127180689</v>
+        <v>-65.27842139053173</v>
       </c>
       <c r="B27" t="n">
-        <v>-357.0547723747848</v>
+        <v>-566.4918223932376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-63.8441846093317</v>
+        <v>-53.75452517249462</v>
       </c>
       <c r="B28" t="n">
-        <v>-354.7742490729917</v>
+        <v>-564.2493620345416</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-52.34207673345061</v>
+        <v>-42.4021424052842</v>
       </c>
       <c r="B29" t="n">
-        <v>-352.536989111152</v>
+        <v>-562.0477948827538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-41.01021077843897</v>
+        <v>-31.21134835579261</v>
       </c>
       <c r="B30" t="n">
-        <v>-350.3403050063308</v>
+        <v>-559.8846473733422</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-29.838732976897</v>
+        <v>-20.17301093978746</v>
       </c>
       <c r="B31" t="n">
-        <v>-348.1817434313779</v>
+        <v>-557.7576491785692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-18.81866343675426</v>
+        <v>-9.27877022182509</v>
       </c>
       <c r="B32" t="n">
-        <v>-346.0590692598917</v>
+        <v>-555.6647236565558</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-7.941663593013986</v>
+        <v>1.479142643763372</v>
       </c>
       <c r="B33" t="n">
-        <v>-343.9702151782295</v>
+        <v>-553.6039481245386</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2.799904455856626</v>
+        <v>12.10785452187448</v>
       </c>
       <c r="B34" t="n">
-        <v>-341.9132883615074</v>
+        <v>-551.5735593744988</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>13.41311117864242</v>
+        <v>22.61397574269618</v>
       </c>
       <c r="B35" t="n">
-        <v>-339.8865406208329</v>
+        <v>-549.5719258226146</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>23.9045298819439</v>
+        <v>33.00366278654908</v>
       </c>
       <c r="B36" t="n">
-        <v>-337.8883512934417</v>
+        <v>-547.5975322590366</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34.28020347404024</v>
+        <v>43.2826143221718</v>
       </c>
       <c r="B37" t="n">
-        <v>-335.9172302745001</v>
+        <v>-545.6489776562943</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44.54584154764709</v>
+        <v>53.45614571169123</v>
       </c>
       <c r="B38" t="n">
-        <v>-333.9717776223778</v>
+        <v>-543.7249583758334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>54.70669335792599</v>
+        <v>63.52923215724812</v>
       </c>
       <c r="B39" t="n">
-        <v>-332.0507051369335</v>
+        <v>-541.8242576886141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>64.76768522106248</v>
+        <v>73.50648728641195</v>
       </c>
       <c r="B40" t="n">
-        <v>-330.1528079737038</v>
+        <v>-539.9457477237057</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>74.73342485233296</v>
+        <v>83.39230244083805</v>
       </c>
       <c r="B41" t="n">
-        <v>-328.2769618081171</v>
+        <v>-538.0883613622433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>84.60820623726455</v>
+        <v>93.19072180356076</v>
       </c>
       <c r="B42" t="n">
-        <v>-326.422120061499</v>
+        <v>-536.2511140763772</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>94.39609469010443</v>
+        <v>102.9055612015979</v>
       </c>
       <c r="B43" t="n">
-        <v>-324.5872962611755</v>
+        <v>-534.4330800524965</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>104.1008620630689</v>
+        <v>112.5404351216524</v>
       </c>
       <c r="B44" t="n">
-        <v>-322.7715747210743</v>
+        <v>-532.6333858174294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>113.7260837920128</v>
+        <v>122.0986990148276</v>
       </c>
       <c r="B45" t="n">
-        <v>-320.9740909969681</v>
+        <v>-530.8512197946244</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>123.2751175614782</v>
+        <v>131.5835769638648</v>
       </c>
       <c r="B46" t="n">
-        <v>-319.1940346897416</v>
+        <v>-529.0858073625169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>132.7511442076206</v>
+        <v>140.9980653872597</v>
       </c>
       <c r="B47" t="n">
-        <v>-317.4306407184513</v>
+        <v>-527.3364278181689</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>142.1571135315126</v>
+        <v>150.3449706535316</v>
       </c>
       <c r="B48" t="n">
-        <v>-315.6831984000739</v>
+        <v>-525.602406408487</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>151.4958593620831</v>
+        <v>159.6270118488362</v>
       </c>
       <c r="B49" t="n">
-        <v>-313.9510291341443</v>
+        <v>-523.8830944388442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>160.770063336148</v>
+        <v>168.8467099440935</v>
       </c>
       <c r="B50" t="n">
-        <v>-312.2334923498872</v>
+        <v>-522.1778890882249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>169.9822233081747</v>
+        <v>178.0064855337172</v>
       </c>
       <c r="B51" t="n">
-        <v>-310.5299905881874</v>
+        <v>-520.4862145989754</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>179.1347353901955</v>
+        <v>187.1085940439045</v>
       </c>
       <c r="B52" t="n">
-        <v>-308.8399536183737</v>
+        <v>-518.8075336248504</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>188.2298755833247</v>
+        <v>196.155209765035</v>
       </c>
       <c r="B53" t="n">
-        <v>-307.1628412339669</v>
+        <v>-517.1413311300827</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>197.2697770631009</v>
+        <v>205.1483787848113</v>
       </c>
       <c r="B54" t="n">
-        <v>-305.4981468593658</v>
+        <v>-515.4871225501918</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>206.2564703395816</v>
+        <v>214.090051765371</v>
       </c>
       <c r="B55" t="n">
-        <v>-303.84538960651</v>
+        <v>-513.8444472602985</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>215.1919121465101</v>
+        <v>222.9820770264741</v>
       </c>
       <c r="B56" t="n">
-        <v>-302.2041084931432</v>
+        <v>-512.2128693998401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>224.0779240968942</v>
+        <v>231.8262231689834</v>
       </c>
       <c r="B57" t="n">
-        <v>-300.5738732742112</v>
+        <v>-510.5919733060387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>232.9162735611943</v>
+        <v>240.6241655646026</v>
       </c>
       <c r="B58" t="n">
-        <v>-298.9542691746166</v>
+        <v>-508.9813656135118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>241.7086134035626</v>
+        <v>249.3774993472771</v>
       </c>
       <c r="B59" t="n">
-        <v>-297.3449075716076</v>
+        <v>-507.3806725174708</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>250.4565443337283</v>
+        <v>258.0877700219445</v>
       </c>
       <c r="B60" t="n">
-        <v>-295.7454142193067</v>
+        <v>-505.7895338582389</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>259.1615895682973</v>
+        <v>266.7563924113195</v>
       </c>
       <c r="B61" t="n">
-        <v>-294.155433577452</v>
+        <v>-504.2076176265212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>267.8251470187313</v>
+        <v>275.3847680867908</v>
       </c>
       <c r="B62" t="n">
-        <v>-292.5746372284286</v>
+        <v>-502.6345982312205</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>276.4486489388752</v>
+        <v>283.9742100097687</v>
       </c>
       <c r="B63" t="n">
-        <v>-291.0026944637993</v>
+        <v>-501.070170007332</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>285.0333781751586</v>
+        <v>292.5260014253171</v>
       </c>
       <c r="B64" t="n">
-        <v>-289.4393055636585</v>
+        <v>-499.5140362418041</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>293.5806036957198</v>
+        <v>301.0413407330738</v>
       </c>
       <c r="B65" t="n">
-        <v>-287.884176836171</v>
+        <v>-497.9659189931137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>302.0915140607952</v>
+        <v>309.5213831852338</v>
       </c>
       <c r="B66" t="n">
-        <v>-286.3370325230852</v>
+        <v>-496.4255512898129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>310.5672749084601</v>
+        <v>317.9672358783133</v>
       </c>
       <c r="B67" t="n">
-        <v>-284.7976041382358</v>
+        <v>-494.8926778543966</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>319.0089763797171</v>
+        <v>326.3799574605766</v>
       </c>
       <c r="B68" t="n">
-        <v>-283.2656398366038</v>
+        <v>-493.3670549785164</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>327.4176710994752</v>
+        <v>334.7605643638912</v>
       </c>
       <c r="B69" t="n">
-        <v>-281.7408973329572</v>
+        <v>-491.8484492264165</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>335.7943619589728</v>
+        <v>343.1099983142942</v>
       </c>
       <c r="B70" t="n">
-        <v>-280.2231459562927</v>
+        <v>-490.3366431616561</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>344.1400121663219</v>
+        <v>351.4292177318595</v>
       </c>
       <c r="B71" t="n">
-        <v>-278.7121646730718</v>
+        <v>-488.8314186493271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>352.4555709508559</v>
+        <v>359.7191165375762</v>
       </c>
       <c r="B72" t="n">
-        <v>-277.2077372964546</v>
+        <v>-487.332571432865</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>360.7418865386311</v>
+        <v>367.9805195018171</v>
       </c>
       <c r="B73" t="n">
-        <v>-275.7096680960082</v>
+        <v>-485.8399118301787</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>368.999842972106</v>
+        <v>376.2142763904725</v>
       </c>
       <c r="B74" t="n">
-        <v>-274.2177569224673</v>
+        <v>-484.3532476023225</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>377.2302358145963</v>
+        <v>384.4211694642041</v>
       </c>
       <c r="B75" t="n">
-        <v>-272.7318215678232</v>
+        <v>-482.8724005637036</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>385.4338551333783</v>
+        <v>392.6019405677135</v>
       </c>
       <c r="B76" t="n">
-        <v>-271.2516826553651</v>
+        <v>-481.397201574335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>393.6114522632674</v>
+        <v>400.7573232250001</v>
       </c>
       <c r="B77" t="n">
-        <v>-269.7771695436727</v>
+        <v>-479.9274846554209</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>401.7637453223663</v>
+        <v>408.8880245306248</v>
       </c>
       <c r="B78" t="n">
-        <v>-268.308119232027</v>
+        <v>-478.463090170459</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>409.8914363971262</v>
+        <v>416.9946978283286</v>
       </c>
       <c r="B79" t="n">
-        <v>-266.8443731739508</v>
+        <v>-477.0038696568513</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>417.9951916229473</v>
+        <v>425.0780089187184</v>
       </c>
       <c r="B80" t="n">
-        <v>-265.3857807828539</v>
+        <v>-475.5496738243022</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>426.0756537519224</v>
+        <v>433.1385609217829</v>
       </c>
       <c r="B81" t="n">
-        <v>-263.9321970872878</v>
+        <v>-474.1003660045704</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>434.1334332059058</v>
+        <v>441.1769573817579</v>
       </c>
       <c r="B82" t="n">
-        <v>-262.4834842652044</v>
+        <v>-472.6558107244414</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>442.1691299262084</v>
+        <v>449.1937749413499</v>
       </c>
       <c r="B83" t="n">
-        <v>-261.0395076444335</v>
+        <v>-471.2158785571273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>450.1833259767697</v>
+        <v>457.1895671695858</v>
       </c>
       <c r="B84" t="n">
-        <v>-259.6001369705307</v>
+        <v>-469.7804453701335</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>458.1765580083942</v>
+        <v>465.1648656383367</v>
       </c>
       <c r="B85" t="n">
-        <v>-258.1652512879089</v>
+        <v>-468.3493920720859</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>466.1493505064486</v>
+        <v>473.120184310558</v>
       </c>
       <c r="B86" t="n">
-        <v>-256.7347329062886</v>
+        <v>-466.9226037693633</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>474.1022358190936</v>
+        <v>481.056014528922</v>
       </c>
       <c r="B87" t="n">
-        <v>-255.3084637579911</v>
+        <v>-465.4999706124206</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>482.0356918940236</v>
+        <v>488.9728411060948</v>
       </c>
       <c r="B88" t="n">
-        <v>-253.8863365155256</v>
+        <v>-464.0813848620039</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>489.9502041586342</v>
+        <v>496.8711264083544</v>
       </c>
       <c r="B89" t="n">
-        <v>-252.4682434425265</v>
+        <v>-462.6667436968606</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>497.8462226662587</v>
+        <v>504.7513035734607</v>
       </c>
       <c r="B90" t="n">
-        <v>-251.0540840306483</v>
+        <v>-461.2559503812225</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>505.7241970622071</v>
+        <v>512.6138096191434</v>
       </c>
       <c r="B91" t="n">
-        <v>-249.6437586900918</v>
+        <v>-459.8489082944338</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>513.5845460043851</v>
+        <v>520.4590549474675</v>
       </c>
       <c r="B92" t="n">
-        <v>-248.2371741850097</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>521.4276848748796</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-246.8342386326631</v>
+        <v>-458.4455263526936</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_60.xlsx
+++ b/Phase_distribution_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,730 +440,850 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-495.3132398834571</v>
+        <v>-0.5177348774463787</v>
       </c>
       <c r="B2" t="n">
-        <v>-657.6116726519258</v>
+        <v>-482.8672876447307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-463.9505539648974</v>
+        <v>-0.5078098721269414</v>
       </c>
       <c r="B3" t="n">
-        <v>-650.4044700190886</v>
+        <v>-481.6889470267456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-435.7493141243253</v>
+        <v>-0.4978848667350946</v>
       </c>
       <c r="B4" t="n">
-        <v>-644.000430903455</v>
+        <v>-480.5106064001636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-410.0150763420276</v>
+        <v>-0.4879598613794522</v>
       </c>
       <c r="B5" t="n">
-        <v>-638.2212978802244</v>
+        <v>-479.3322657778801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-386.2562410859509</v>
+        <v>-0.4780348560592672</v>
       </c>
       <c r="B6" t="n">
-        <v>-632.9412338109012</v>
+        <v>-478.1539251598061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-364.1132727749131</v>
+        <v>-0.4681098506681684</v>
       </c>
       <c r="B7" t="n">
-        <v>-628.0684179789262</v>
+        <v>-476.9755845333129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-343.3159766611511</v>
+        <v>-0.4581848453125258</v>
       </c>
       <c r="B8" t="n">
-        <v>-623.5339752266767</v>
+        <v>-475.7972439110295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-323.6563553483092</v>
+        <v>-0.4482598399568842</v>
       </c>
       <c r="B9" t="n">
-        <v>-619.2849732743547</v>
+        <v>-474.6189032887459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-304.9712167003029</v>
+        <v>-0.4383348346356992</v>
       </c>
       <c r="B10" t="n">
-        <v>-615.2799349988315</v>
+        <v>-473.4405626705533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-287.1302841159158</v>
+        <v>-0.4284098292203118</v>
       </c>
       <c r="B11" t="n">
-        <v>-611.4857840284346</v>
+        <v>-472.2622220411765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-270.0279271356117</v>
+        <v>-0.4184848239239157</v>
       </c>
       <c r="B12" t="n">
-        <v>-607.8757268632309</v>
+        <v>-471.0838814259268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-253.5773604357529</v>
+        <v>-0.4085598185343151</v>
       </c>
       <c r="B13" t="n">
-        <v>-604.4277675811018</v>
+        <v>-469.9055407996117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-237.706497403797</v>
+        <v>-0.3986348132121328</v>
       </c>
       <c r="B14" t="n">
-        <v>-601.123645309596</v>
+        <v>-468.7272001813007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-222.3547351188077</v>
+        <v>-0.3887098078230316</v>
       </c>
       <c r="B15" t="n">
-        <v>-597.9480189267263</v>
+        <v>-467.5488595550447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-207.4705981212492</v>
+        <v>-0.378784802443225</v>
       </c>
       <c r="B16" t="n">
-        <v>-594.887868396679</v>
+        <v>-466.3705189298922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-193.010147803322</v>
+        <v>-0.3688597971117475</v>
       </c>
       <c r="B17" t="n">
-        <v>-591.9320811644819</v>
+        <v>-465.1921783104776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-178.9353697818079</v>
+        <v>-0.358934791764849</v>
       </c>
       <c r="B18" t="n">
-        <v>-589.0710541329734</v>
+        <v>-464.0138376892321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-165.2132846276789</v>
+        <v>-0.3490097864004638</v>
       </c>
       <c r="B19" t="n">
-        <v>-586.2964591325651</v>
+        <v>-462.8354970659106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-151.8150467946928</v>
+        <v>-0.3390847810448211</v>
       </c>
       <c r="B20" t="n">
-        <v>-583.6010169766611</v>
+        <v>-461.6571564436269</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-138.7152176255904</v>
+        <v>-0.3291597757208907</v>
       </c>
       <c r="B21" t="n">
-        <v>-580.9783159754797</v>
+        <v>-460.4788158251083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-125.8913029647672</v>
+        <v>-0.3192347703335372</v>
       </c>
       <c r="B22" t="n">
-        <v>-578.422690596056</v>
+        <v>-459.3004751990599</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-113.3232959014369</v>
+        <v>-0.3093097650091061</v>
       </c>
       <c r="B23" t="n">
-        <v>-575.9291063796618</v>
+        <v>-458.1221345804819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-100.9933241467511</v>
+        <v>-0.2993847596532149</v>
       </c>
       <c r="B24" t="n">
-        <v>-573.4930700981612</v>
+        <v>-456.9437939581687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-88.88528117350343</v>
+        <v>-0.2894597542444678</v>
       </c>
       <c r="B25" t="n">
-        <v>-571.1105402955457</v>
+        <v>-455.7654533295803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-76.98469185246165</v>
+        <v>-0.2795347489414319</v>
       </c>
       <c r="B26" t="n">
-        <v>-568.7778869414727</v>
+        <v>-454.5871127135425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-65.27842139053173</v>
+        <v>-0.2696097435855395</v>
       </c>
       <c r="B27" t="n">
-        <v>-566.4918223932376</v>
+        <v>-453.4087720912291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-53.75452517249462</v>
+        <v>-0.2596847381996842</v>
       </c>
       <c r="B28" t="n">
-        <v>-564.2493620345416</v>
+        <v>-452.2304314653586</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-42.4021424052842</v>
+        <v>-0.2497597328440431</v>
       </c>
       <c r="B29" t="n">
-        <v>-562.0477948827538</v>
+        <v>-451.0520908430752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-31.21134835579261</v>
+        <v>-0.2398347275178642</v>
       </c>
       <c r="B30" t="n">
-        <v>-559.8846473733422</v>
+        <v>-449.8737502242897</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-20.17301093978746</v>
+        <v>-0.229909722132759</v>
       </c>
       <c r="B31" t="n">
-        <v>-557.7576491785692</v>
+        <v>-448.6954095985081</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-9.27877022182509</v>
+        <v>-0.2199847167771163</v>
       </c>
       <c r="B32" t="n">
-        <v>-555.6647236565558</v>
+        <v>-447.5170689762245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1.479142643763372</v>
+        <v>-0.2100597114214736</v>
       </c>
       <c r="B33" t="n">
-        <v>-553.6039481245386</v>
+        <v>-446.3387283539408</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12.10785452187448</v>
+        <v>-0.2001347060942971</v>
       </c>
       <c r="B34" t="n">
-        <v>-551.5735593744988</v>
+        <v>-445.1603877350369</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22.61397574269618</v>
+        <v>-0.1902097007384047</v>
       </c>
       <c r="B35" t="n">
-        <v>-549.5719258226146</v>
+        <v>-443.9820471127236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33.00366278654908</v>
+        <v>-0.180284695382514</v>
       </c>
       <c r="B36" t="n">
-        <v>-547.5975322590366</v>
+        <v>-442.8037064904105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>43.2826143221718</v>
+        <v>-0.1703596900266216</v>
       </c>
       <c r="B37" t="n">
-        <v>-545.6489776562943</v>
+        <v>-441.6253658680974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>53.45614571169123</v>
+        <v>-0.1604346846432633</v>
       </c>
       <c r="B38" t="n">
-        <v>-543.7249583758334</v>
+        <v>-440.4470252425232</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>63.52923215724812</v>
+        <v>-0.1505096793148384</v>
       </c>
       <c r="B39" t="n">
-        <v>-541.8242576886141</v>
+        <v>-439.2686846234709</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>73.50648728641195</v>
+        <v>-0.140584673958946</v>
       </c>
       <c r="B40" t="n">
-        <v>-539.9457477237057</v>
+        <v>-438.0903440011577</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>83.39230244083805</v>
+        <v>-0.1306596686030553</v>
       </c>
       <c r="B41" t="n">
-        <v>-538.0883613622433</v>
+        <v>-436.9120033788447</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>93.19072180356076</v>
+        <v>-0.1207346632206957</v>
       </c>
       <c r="B42" t="n">
-        <v>-536.2511140763772</v>
+        <v>-435.7336627533891</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>102.9055612015979</v>
+        <v>-0.1108096578650527</v>
       </c>
       <c r="B43" t="n">
-        <v>-534.4330800524965</v>
+        <v>-434.5553221311055</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>112.5404351216524</v>
+        <v>-0.1008846525094117</v>
       </c>
       <c r="B44" t="n">
-        <v>-532.6333858174294</v>
+        <v>-433.3769815088221</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>122.0986990148276</v>
+        <v>-0.09095964717948724</v>
       </c>
       <c r="B45" t="n">
-        <v>-530.8512197946244</v>
+        <v>-432.1986408895918</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>131.5835769638648</v>
+        <v>-0.08103464180617249</v>
       </c>
       <c r="B46" t="n">
-        <v>-529.0858073625169</v>
+        <v>-431.0203002652101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>140.9980653872597</v>
+        <v>-0.07110963642528623</v>
       </c>
       <c r="B47" t="n">
-        <v>-527.3364278181689</v>
+        <v>-429.8419596399294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>150.3449706535316</v>
+        <v>-0.06118463108684238</v>
       </c>
       <c r="B48" t="n">
-        <v>-525.602406408487</v>
+        <v>-428.6636190196878</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>159.6270118488362</v>
+        <v>-0.05125962575592068</v>
       </c>
       <c r="B49" t="n">
-        <v>-523.8830944388442</v>
+        <v>-427.4852784003392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>168.8467099440935</v>
+        <v>-0.04133462040002839</v>
       </c>
       <c r="B50" t="n">
-        <v>-522.1778890882249</v>
+        <v>-426.3069377780259</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>178.0064855337172</v>
+        <v>-0.03140961504413733</v>
       </c>
       <c r="B51" t="n">
-        <v>-520.4862145989754</v>
+        <v>-425.1285971557128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>187.1085940439045</v>
+        <v>-0.02148460968824496</v>
       </c>
       <c r="B52" t="n">
-        <v>-518.8075336248504</v>
+        <v>-423.9502565333996</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>196.155209765035</v>
+        <v>-0.0115596043086321</v>
       </c>
       <c r="B53" t="n">
-        <v>-517.1413311300827</v>
+        <v>-422.77191590827</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>205.1483787848113</v>
+        <v>-0.001634598976461639</v>
       </c>
       <c r="B54" t="n">
-        <v>-515.4871225501918</v>
+        <v>-421.5935752887731</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>214.090051765371</v>
+        <v>0.008290406387131301</v>
       </c>
       <c r="B55" t="n">
-        <v>-513.8444472602985</v>
+        <v>-420.4152346655457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>222.9820770264741</v>
+        <v>0.01821541173532145</v>
       </c>
       <c r="B56" t="n">
-        <v>-512.2128693998401</v>
+        <v>-419.2368940441469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>231.8262231689834</v>
+        <v>0.02814041709121383</v>
       </c>
       <c r="B57" t="n">
-        <v>-510.5919733060387</v>
+        <v>-418.0585534218336</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>240.6241655646026</v>
+        <v>0.03806542246957818</v>
       </c>
       <c r="B58" t="n">
-        <v>-508.9813656135118</v>
+        <v>-416.8802127968524</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>249.3774993472771</v>
+        <v>0.0479904278029971</v>
       </c>
       <c r="B59" t="n">
-        <v>-507.3806725174708</v>
+        <v>-415.7018721772073</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>258.0877700219445</v>
+        <v>0.05791543315888949</v>
       </c>
       <c r="B60" t="n">
-        <v>-505.7895338582389</v>
+        <v>-414.5235315548941</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>266.7563924113195</v>
+        <v>0.06784043850072774</v>
       </c>
       <c r="B61" t="n">
-        <v>-504.2076176265212</v>
+        <v>-413.3451909342493</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>275.3847680867908</v>
+        <v>0.07776544389214612</v>
       </c>
       <c r="B62" t="n">
-        <v>-502.6345982312205</v>
+        <v>-412.1668503077183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>283.9742100097687</v>
+        <v>0.08769044924016869</v>
       </c>
       <c r="B63" t="n">
-        <v>-501.070170007332</v>
+        <v>-410.9885096863394</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>292.5260014253171</v>
+        <v>0.0976154546034298</v>
       </c>
       <c r="B64" t="n">
-        <v>-499.5140362418041</v>
+        <v>-409.8101690631513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>301.0413407330738</v>
+        <v>0.1075404599449252</v>
       </c>
       <c r="B65" t="n">
-        <v>-497.9659189931137</v>
+        <v>-408.6318284425473</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>309.5213831852338</v>
+        <v>0.1174654652942393</v>
       </c>
       <c r="B66" t="n">
-        <v>-496.4255512898129</v>
+        <v>-407.453487821015</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>317.9672358783133</v>
+        <v>0.1273904706640041</v>
       </c>
       <c r="B67" t="n">
-        <v>-494.8926778543966</v>
+        <v>-406.2751471970547</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>326.3799574605766</v>
+        <v>0.137315476032239</v>
       </c>
       <c r="B68" t="n">
-        <v>-493.3670549785164</v>
+        <v>-405.0968065732761</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>334.7605643638912</v>
+        <v>0.1472404813816405</v>
       </c>
       <c r="B69" t="n">
-        <v>-491.8484492264165</v>
+        <v>-403.9184659517335</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>343.1099983142942</v>
+        <v>0.1571654867312679</v>
       </c>
       <c r="B70" t="n">
-        <v>-490.3366431616561</v>
+        <v>-402.740125330164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>351.4292177318595</v>
+        <v>0.1670904920929241</v>
       </c>
       <c r="B71" t="n">
-        <v>-488.8314186493271</v>
+        <v>-401.5617847071665</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>359.7191165375762</v>
+        <v>0.1770154974427763</v>
       </c>
       <c r="B72" t="n">
-        <v>-487.332571432865</v>
+        <v>-400.3834440855703</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>367.9805195018171</v>
+        <v>0.1869405027985312</v>
       </c>
       <c r="B73" t="n">
-        <v>-485.8399118301787</v>
+        <v>-399.2051034632734</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>376.2142763904725</v>
+        <v>0.196865508154285</v>
       </c>
       <c r="B74" t="n">
-        <v>-484.3532476023225</v>
+        <v>-398.0267628409767</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>384.4211694642041</v>
+        <v>0.20679051351004</v>
       </c>
       <c r="B75" t="n">
-        <v>-482.8724005637036</v>
+        <v>-396.8484222186797</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>392.6019405677135</v>
+        <v>0.2167155188711345</v>
       </c>
       <c r="B76" t="n">
-        <v>-481.397201574335</v>
+        <v>-395.6700815957488</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>400.7573232250001</v>
+        <v>0.2266405242215485</v>
       </c>
       <c r="B77" t="n">
-        <v>-479.9274846554209</v>
+        <v>-394.491740974086</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>408.8880245306248</v>
+        <v>0.2365655295773036</v>
       </c>
       <c r="B78" t="n">
-        <v>-478.463090170459</v>
+        <v>-393.313400351789</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>416.9946978283286</v>
+        <v>0.2464905349330572</v>
       </c>
       <c r="B79" t="n">
-        <v>-477.0038696568513</v>
+        <v>-392.1350597294922</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>425.0780089187184</v>
+        <v>0.2564155402888121</v>
       </c>
       <c r="B80" t="n">
-        <v>-475.5496738243022</v>
+        <v>-390.9567191071953</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>433.1385609217829</v>
+        <v>0.2663405456278367</v>
       </c>
       <c r="B81" t="n">
-        <v>-474.1003660045704</v>
+        <v>-389.7783784868847</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>441.1769573817579</v>
+        <v>0.2762655510003207</v>
       </c>
       <c r="B82" t="n">
-        <v>-472.6558107244414</v>
+        <v>-388.6000378626015</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>449.1937749413499</v>
+        <v>0.2861905563398462</v>
       </c>
       <c r="B83" t="n">
-        <v>-471.2158785571273</v>
+        <v>-387.4216972422315</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>457.1895671695858</v>
+        <v>0.2961155617002915</v>
       </c>
       <c r="B84" t="n">
-        <v>-469.7804453701335</v>
+        <v>-386.2433566193777</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>465.1648656383367</v>
+        <v>0.3060405670675844</v>
       </c>
       <c r="B85" t="n">
-        <v>-468.3493920720859</v>
+        <v>-385.0650159957109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>473.120184310558</v>
+        <v>0.3159655724233379</v>
       </c>
       <c r="B86" t="n">
-        <v>-466.9226037693633</v>
+        <v>-383.8866753734142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>481.056014528922</v>
+        <v>0.3258905777638621</v>
       </c>
       <c r="B87" t="n">
-        <v>-465.4999706124206</v>
+        <v>-382.7083347529255</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>488.9728411060948</v>
+        <v>0.3358155831388407</v>
       </c>
       <c r="B88" t="n">
-        <v>-464.0813848620039</v>
+        <v>-381.5299941283462</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>496.8711264083544</v>
+        <v>0.3457405884906016</v>
       </c>
       <c r="B89" t="n">
-        <v>-462.6667436968606</v>
+        <v>-380.3516535065235</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>504.7513035734607</v>
+        <v>0.3556655938356427</v>
       </c>
       <c r="B90" t="n">
-        <v>-461.2559503812225</v>
+        <v>-379.1733128854985</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>512.6138096191434</v>
+        <v>0.3655905991878796</v>
       </c>
       <c r="B91" t="n">
-        <v>-459.8489082944338</v>
+        <v>-377.9949722636192</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>520.4590549474675</v>
+        <v>0.3755156045578651</v>
       </c>
       <c r="B92" t="n">
-        <v>-458.4455263526936</v>
+        <v>-376.8166316396328</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>0.3854406098998875</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-375.6382910189662</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>0.3953656152558907</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-374.4599503966398</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>0.4052906206118955</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-373.2816097743132</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>0.415215625970994</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-372.1032691516193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>0.425140631326885</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-370.9249285293062</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>0.4350656366770391</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-369.7465879076742</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>0.4449906420331547</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-368.5682472853345</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>0.4549156473945606</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-367.3899066623666</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>0.4648406527555168</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-366.2115660394521</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>0.4747656581111831</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-365.0332254171658</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>0.4846906634668506</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-363.8548847948791</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>0.4946156688181271</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-362.6765441731139</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>0.504540674188921</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-361.4982035490315</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>0.514465679544339</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-360.3198629267746</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>0.5243906848997554</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-359.1415223045179</v>
       </c>
     </row>
   </sheetData>
